--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_28.xlsx
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>664632.123889794</v>
+        <v>661429.7748710454</v>
       </c>
     </row>
     <row r="7">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019267</v>
+        <v>573493.4371019269</v>
       </c>
       <c r="C2" t="n">
+        <v>573493.437101927</v>
+      </c>
+      <c r="D2" t="n">
         <v>573493.4371019269</v>
       </c>
-      <c r="D2" t="n">
-        <v>573493.437101927</v>
-      </c>
       <c r="E2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="F2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="G2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="H2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="I2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="J2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="K2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="L2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="M2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="N2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="O2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
       <c r="P2" t="n">
-        <v>160048.767409809</v>
+        <v>160048.7674098091</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100.0000000001</v>
+        <v>133100</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="C4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="D4" t="n">
-        <v>451872.6453349188</v>
+        <v>452399.9905489652</v>
       </c>
       <c r="E4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="F4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="G4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="H4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="I4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="J4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="K4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="L4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="M4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="N4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="O4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
       <c r="P4" t="n">
-        <v>63396.93252460897</v>
+        <v>63709.44000359975</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87993.19176700784</v>
+        <v>87465.84655296174</v>
       </c>
       <c r="C6" t="n">
-        <v>87993.19176700807</v>
+        <v>87465.84655296186</v>
       </c>
       <c r="D6" t="n">
-        <v>87993.19176700819</v>
+        <v>87465.84655296174</v>
       </c>
       <c r="E6" t="n">
-        <v>-40059.77721980836</v>
+        <v>-40372.284698799</v>
       </c>
       <c r="F6" t="n">
-        <v>93040.2227801917</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="G6" t="n">
-        <v>93040.2227801917</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="H6" t="n">
-        <v>93040.2227801917</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="I6" t="n">
-        <v>93040.22278019173</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="J6" t="n">
-        <v>93040.22278019173</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="K6" t="n">
-        <v>93040.22278019173</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="L6" t="n">
-        <v>93040.2227801917</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="M6" t="n">
-        <v>93040.22278019173</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="N6" t="n">
-        <v>93040.22278019173</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="O6" t="n">
-        <v>93040.22278019173</v>
+        <v>92727.71530120101</v>
       </c>
       <c r="P6" t="n">
-        <v>93040.22278019173</v>
+        <v>92727.71530120101</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>661429.7748710454</v>
+        <v>675156.1330084631</v>
       </c>
     </row>
     <row r="7">
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019269</v>
+        <v>573493.4371019268</v>
       </c>
       <c r="C2" t="n">
         <v>573493.437101927</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>133100</v>
+        <v>133100.0000000001</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87465.84655296174</v>
+        <v>87465.84655296159</v>
       </c>
       <c r="C6" t="n">
-        <v>87465.84655296186</v>
+        <v>87465.84655296183</v>
       </c>
       <c r="D6" t="n">
-        <v>87465.84655296174</v>
+        <v>87465.84655296171</v>
       </c>
       <c r="E6" t="n">
-        <v>-40372.284698799</v>
+        <v>-40372.28469879909</v>
       </c>
       <c r="F6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="G6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="H6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="I6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="J6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="K6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="L6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="M6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="N6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="O6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
       <c r="P6" t="n">
-        <v>92727.71530120101</v>
+        <v>92727.71530120098</v>
       </c>
     </row>
   </sheetData>

--- a/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_28.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/100000/Output_20_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>675156.1330084631</v>
+        <v>591370.7312468383</v>
       </c>
     </row>
     <row r="7">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>573493.4371019268</v>
+        <v>573493.437101927</v>
       </c>
       <c r="C2" t="n">
         <v>573493.437101927</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>87465.84655296159</v>
+        <v>87421.7107742807</v>
       </c>
       <c r="C6" t="n">
-        <v>87465.84655296183</v>
+        <v>87421.7107742807</v>
       </c>
       <c r="D6" t="n">
-        <v>87465.84655296171</v>
+        <v>87421.71077428058</v>
       </c>
       <c r="E6" t="n">
-        <v>-40372.28469879909</v>
+        <v>-55182.30153791299</v>
       </c>
       <c r="F6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="G6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="H6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="I6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="J6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="K6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="L6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="M6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="N6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="O6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
       <c r="P6" t="n">
-        <v>92727.71530120098</v>
+        <v>77917.69846208711</v>
       </c>
     </row>
   </sheetData>
